--- a/data/neut_assays/plate_reader_data/VIDD2_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/VIDD2_NeutralizationAssay.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="460" windowWidth="26880" windowHeight="16840" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -17,14 +12,17 @@
     <sheet name="K160T" sheetId="3" r:id="rId3"/>
     <sheet name="F193D" sheetId="4" r:id="rId4"/>
     <sheet name="F193F" sheetId="5" r:id="rId5"/>
+    <sheet name="WT2" sheetId="6" r:id="rId6"/>
+    <sheet name="K189D" sheetId="7" r:id="rId7"/>
+    <sheet name="F159G" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -475,8 +473,275 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="78">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -671,6 +936,45 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>10:47:45 AM</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:48:44 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 25.6 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:49:39 AM</t>
+  </si>
+  <si>
+    <t>10:45:25 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:46:28 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 25.4 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:47:24 AM</t>
+  </si>
+  <si>
+    <t>10:42:56 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:43:59 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 25.2 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:44:55 AM</t>
   </si>
 </sst>
 </file>
@@ -850,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -885,7 +1189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1100,9 +1404,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1438,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1166,17 +1470,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1184,12 +1488,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1222,7 +1526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1288,7 +1592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1299,7 +1603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1307,12 +1611,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1353,12 +1657,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1399,7 +1703,7 @@
         <v>16871</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1440,7 +1744,7 @@
         <v>33523</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1481,7 +1785,7 @@
         <v>25359</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1522,7 +1826,7 @@
         <v>25992</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1563,7 +1867,7 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1604,12 +1908,12 @@
         <v>32454</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1620,6 +1924,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1631,9 +1940,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +1974,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1697,17 +2006,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1715,12 +2024,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +2040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +2051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +2062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +2073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1775,7 +2084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1786,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1797,7 +2106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1808,7 +2117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1819,7 +2128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1830,7 +2139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1838,12 +2147,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1884,12 +2193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1930,7 +2239,7 @@
         <v>11988</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +2280,7 @@
         <v>33686</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2012,7 +2321,7 @@
         <v>17854</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2053,7 +2362,7 @@
         <v>17826</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2094,7 +2403,7 @@
         <v>17915</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2135,12 +2444,12 @@
         <v>33211</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2151,6 +2460,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2162,9 +2476,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2510,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2212,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2220,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2228,17 +2542,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2246,12 +2560,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2262,7 +2576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2273,7 +2587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2284,7 +2598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +2609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2306,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2317,7 +2631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2328,7 +2642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2339,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2350,7 +2664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2361,7 +2675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2369,12 +2683,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2415,12 +2729,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2461,7 +2775,7 @@
         <v>11148</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2816,7 @@
         <v>27492</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2543,7 +2857,7 @@
         <v>15734</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2584,7 +2898,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2625,7 +2939,7 @@
         <v>15938</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2666,12 +2980,12 @@
         <v>28630</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2682,6 +2996,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2693,9 +3012,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2719,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2727,7 +3046,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +3054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2743,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2751,7 +3070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2759,17 +3078,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2777,12 +3096,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2793,7 +3112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2804,7 +3123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2815,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2826,7 +3145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2837,7 +3156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2848,7 +3167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2859,7 +3178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2870,7 +3189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2881,7 +3200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2892,7 +3211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2900,12 +3219,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2946,12 +3265,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2992,7 +3311,7 @@
         <v>14071</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3033,7 +3352,7 @@
         <v>31672</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3074,7 +3393,7 @@
         <v>18153</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3434,7 @@
         <v>19267</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3156,7 +3475,7 @@
         <v>19039</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3197,12 +3516,12 @@
         <v>29966</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3213,6 +3532,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3220,13 +3544,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3258,7 +3582,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3282,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3290,17 +3614,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3308,12 +3632,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3324,7 +3648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3335,7 +3659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3346,7 +3670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3357,7 +3681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3368,7 +3692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3379,7 +3703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3401,7 +3725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3412,7 +3736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3431,12 +3755,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3477,12 +3801,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +3847,7 @@
         <v>11244</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3564,7 +3888,7 @@
         <v>30643</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3605,7 +3929,7 @@
         <v>17835</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3646,7 +3970,7 @@
         <v>18210</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3687,7 +4011,7 @@
         <v>18088</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3728,12 +4052,12 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3744,5 +4068,1834 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>11311</v>
+      </c>
+      <c r="C32">
+        <v>11547</v>
+      </c>
+      <c r="D32">
+        <v>12299</v>
+      </c>
+      <c r="E32">
+        <v>12550</v>
+      </c>
+      <c r="F32">
+        <v>12631</v>
+      </c>
+      <c r="G32">
+        <v>12526</v>
+      </c>
+      <c r="H32">
+        <v>12612</v>
+      </c>
+      <c r="I32">
+        <v>12304</v>
+      </c>
+      <c r="J32">
+        <v>12701</v>
+      </c>
+      <c r="K32">
+        <v>12003</v>
+      </c>
+      <c r="L32">
+        <v>11782</v>
+      </c>
+      <c r="M32">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>16567</v>
+      </c>
+      <c r="C33">
+        <v>16854</v>
+      </c>
+      <c r="D33">
+        <v>17033</v>
+      </c>
+      <c r="E33">
+        <v>17261</v>
+      </c>
+      <c r="F33">
+        <v>17555</v>
+      </c>
+      <c r="G33">
+        <v>17441</v>
+      </c>
+      <c r="H33">
+        <v>17184</v>
+      </c>
+      <c r="I33">
+        <v>17378</v>
+      </c>
+      <c r="J33">
+        <v>17376</v>
+      </c>
+      <c r="K33">
+        <v>17241</v>
+      </c>
+      <c r="L33">
+        <v>16684</v>
+      </c>
+      <c r="M33">
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>29066</v>
+      </c>
+      <c r="C34">
+        <v>32180</v>
+      </c>
+      <c r="D34">
+        <v>32308</v>
+      </c>
+      <c r="E34">
+        <v>33338</v>
+      </c>
+      <c r="F34">
+        <v>36862</v>
+      </c>
+      <c r="G34">
+        <v>35616</v>
+      </c>
+      <c r="H34">
+        <v>35017</v>
+      </c>
+      <c r="I34">
+        <v>34125</v>
+      </c>
+      <c r="J34">
+        <v>33112</v>
+      </c>
+      <c r="K34">
+        <v>32557</v>
+      </c>
+      <c r="L34">
+        <v>30979</v>
+      </c>
+      <c r="M34">
+        <v>28309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>30386</v>
+      </c>
+      <c r="C35">
+        <v>32993</v>
+      </c>
+      <c r="D35">
+        <v>33572</v>
+      </c>
+      <c r="E35">
+        <v>33395</v>
+      </c>
+      <c r="F35">
+        <v>35284</v>
+      </c>
+      <c r="G35">
+        <v>33606</v>
+      </c>
+      <c r="H35">
+        <v>31500</v>
+      </c>
+      <c r="I35">
+        <v>23985</v>
+      </c>
+      <c r="J35">
+        <v>19947</v>
+      </c>
+      <c r="K35">
+        <v>18424</v>
+      </c>
+      <c r="L35">
+        <v>19913</v>
+      </c>
+      <c r="M35">
+        <v>23784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>29879</v>
+      </c>
+      <c r="C36">
+        <v>31841</v>
+      </c>
+      <c r="D36">
+        <v>33460</v>
+      </c>
+      <c r="E36">
+        <v>34820</v>
+      </c>
+      <c r="F36">
+        <v>36111</v>
+      </c>
+      <c r="G36">
+        <v>33750</v>
+      </c>
+      <c r="H36">
+        <v>29429</v>
+      </c>
+      <c r="I36">
+        <v>22683</v>
+      </c>
+      <c r="J36">
+        <v>19858</v>
+      </c>
+      <c r="K36">
+        <v>18555</v>
+      </c>
+      <c r="L36">
+        <v>19705</v>
+      </c>
+      <c r="M36">
+        <v>23547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>31024</v>
+      </c>
+      <c r="C37">
+        <v>31197</v>
+      </c>
+      <c r="D37">
+        <v>31604</v>
+      </c>
+      <c r="E37">
+        <v>33324</v>
+      </c>
+      <c r="F37">
+        <v>34586</v>
+      </c>
+      <c r="G37">
+        <v>31822</v>
+      </c>
+      <c r="H37">
+        <v>30772</v>
+      </c>
+      <c r="I37">
+        <v>22404</v>
+      </c>
+      <c r="J37">
+        <v>19427</v>
+      </c>
+      <c r="K37">
+        <v>18116</v>
+      </c>
+      <c r="L37">
+        <v>19511</v>
+      </c>
+      <c r="M37">
+        <v>23591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>29722</v>
+      </c>
+      <c r="C38">
+        <v>30157</v>
+      </c>
+      <c r="D38">
+        <v>31669</v>
+      </c>
+      <c r="E38">
+        <v>30207</v>
+      </c>
+      <c r="F38">
+        <v>34404</v>
+      </c>
+      <c r="G38">
+        <v>34251</v>
+      </c>
+      <c r="H38">
+        <v>32658</v>
+      </c>
+      <c r="I38">
+        <v>26221</v>
+      </c>
+      <c r="J38">
+        <v>31865</v>
+      </c>
+      <c r="K38">
+        <v>32875</v>
+      </c>
+      <c r="L38">
+        <v>31562</v>
+      </c>
+      <c r="M38">
+        <v>29359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>10749</v>
+      </c>
+      <c r="C39">
+        <v>10971</v>
+      </c>
+      <c r="D39">
+        <v>11244</v>
+      </c>
+      <c r="E39">
+        <v>11515</v>
+      </c>
+      <c r="F39">
+        <v>11742</v>
+      </c>
+      <c r="G39">
+        <v>12001</v>
+      </c>
+      <c r="H39">
+        <v>11820</v>
+      </c>
+      <c r="I39">
+        <v>11674</v>
+      </c>
+      <c r="J39">
+        <v>11685</v>
+      </c>
+      <c r="K39">
+        <v>11285</v>
+      </c>
+      <c r="L39">
+        <v>10879</v>
+      </c>
+      <c r="M39">
+        <v>10617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>7676</v>
+      </c>
+      <c r="C32">
+        <v>8152</v>
+      </c>
+      <c r="D32">
+        <v>8407</v>
+      </c>
+      <c r="E32">
+        <v>8642</v>
+      </c>
+      <c r="F32">
+        <v>8689</v>
+      </c>
+      <c r="G32">
+        <v>8570</v>
+      </c>
+      <c r="H32">
+        <v>8839</v>
+      </c>
+      <c r="I32">
+        <v>8662</v>
+      </c>
+      <c r="J32">
+        <v>8542</v>
+      </c>
+      <c r="K32">
+        <v>8376</v>
+      </c>
+      <c r="L32">
+        <v>8066</v>
+      </c>
+      <c r="M32">
+        <v>7723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>10225</v>
+      </c>
+      <c r="C33">
+        <v>10165</v>
+      </c>
+      <c r="D33">
+        <v>10574</v>
+      </c>
+      <c r="E33">
+        <v>11188</v>
+      </c>
+      <c r="F33">
+        <v>10744</v>
+      </c>
+      <c r="G33">
+        <v>10825</v>
+      </c>
+      <c r="H33">
+        <v>10810</v>
+      </c>
+      <c r="I33">
+        <v>10776</v>
+      </c>
+      <c r="J33">
+        <v>10684</v>
+      </c>
+      <c r="K33">
+        <v>10535</v>
+      </c>
+      <c r="L33">
+        <v>10305</v>
+      </c>
+      <c r="M33">
+        <v>10158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>33524</v>
+      </c>
+      <c r="C34">
+        <v>35472</v>
+      </c>
+      <c r="D34">
+        <v>35977</v>
+      </c>
+      <c r="E34">
+        <v>38252</v>
+      </c>
+      <c r="F34">
+        <v>37949</v>
+      </c>
+      <c r="G34">
+        <v>39144</v>
+      </c>
+      <c r="H34">
+        <v>36927</v>
+      </c>
+      <c r="I34">
+        <v>38652</v>
+      </c>
+      <c r="J34">
+        <v>36585</v>
+      </c>
+      <c r="K34">
+        <v>37066</v>
+      </c>
+      <c r="L34">
+        <v>34262</v>
+      </c>
+      <c r="M34">
+        <v>31350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>31656</v>
+      </c>
+      <c r="C35">
+        <v>34228</v>
+      </c>
+      <c r="D35">
+        <v>35436</v>
+      </c>
+      <c r="E35">
+        <v>35784</v>
+      </c>
+      <c r="F35">
+        <v>33742</v>
+      </c>
+      <c r="G35">
+        <v>30222</v>
+      </c>
+      <c r="H35">
+        <v>20293</v>
+      </c>
+      <c r="I35">
+        <v>13769</v>
+      </c>
+      <c r="J35">
+        <v>11559</v>
+      </c>
+      <c r="K35">
+        <v>11258</v>
+      </c>
+      <c r="L35">
+        <v>12410</v>
+      </c>
+      <c r="M35">
+        <v>14959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>30803</v>
+      </c>
+      <c r="C36">
+        <v>33884</v>
+      </c>
+      <c r="D36">
+        <v>33946</v>
+      </c>
+      <c r="E36">
+        <v>34944</v>
+      </c>
+      <c r="F36">
+        <v>33800</v>
+      </c>
+      <c r="G36">
+        <v>26089</v>
+      </c>
+      <c r="H36">
+        <v>20540</v>
+      </c>
+      <c r="I36">
+        <v>13693</v>
+      </c>
+      <c r="J36">
+        <v>11506</v>
+      </c>
+      <c r="K36">
+        <v>11329</v>
+      </c>
+      <c r="L36">
+        <v>12357</v>
+      </c>
+      <c r="M36">
+        <v>15151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>29651</v>
+      </c>
+      <c r="C37">
+        <v>32918</v>
+      </c>
+      <c r="D37">
+        <v>33464</v>
+      </c>
+      <c r="E37">
+        <v>33577</v>
+      </c>
+      <c r="F37">
+        <v>30852</v>
+      </c>
+      <c r="G37">
+        <v>25556</v>
+      </c>
+      <c r="H37">
+        <v>18576</v>
+      </c>
+      <c r="I37">
+        <v>13401</v>
+      </c>
+      <c r="J37">
+        <v>10999</v>
+      </c>
+      <c r="K37">
+        <v>11180</v>
+      </c>
+      <c r="L37">
+        <v>12124</v>
+      </c>
+      <c r="M37">
+        <v>14801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>29271</v>
+      </c>
+      <c r="C38">
+        <v>32357</v>
+      </c>
+      <c r="D38">
+        <v>32703</v>
+      </c>
+      <c r="E38">
+        <v>34050</v>
+      </c>
+      <c r="F38">
+        <v>33145</v>
+      </c>
+      <c r="G38">
+        <v>33916</v>
+      </c>
+      <c r="H38">
+        <v>35819</v>
+      </c>
+      <c r="I38">
+        <v>33307</v>
+      </c>
+      <c r="J38">
+        <v>34129</v>
+      </c>
+      <c r="K38">
+        <v>33289</v>
+      </c>
+      <c r="L38">
+        <v>31589</v>
+      </c>
+      <c r="M38">
+        <v>29252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>7457</v>
+      </c>
+      <c r="C39">
+        <v>7528</v>
+      </c>
+      <c r="D39">
+        <v>7801</v>
+      </c>
+      <c r="E39">
+        <v>8086</v>
+      </c>
+      <c r="F39">
+        <v>8385</v>
+      </c>
+      <c r="G39">
+        <v>8027</v>
+      </c>
+      <c r="H39">
+        <v>8205</v>
+      </c>
+      <c r="I39">
+        <v>8242</v>
+      </c>
+      <c r="J39">
+        <v>8023</v>
+      </c>
+      <c r="K39">
+        <v>7802</v>
+      </c>
+      <c r="L39">
+        <v>7652</v>
+      </c>
+      <c r="M39">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>7733</v>
+      </c>
+      <c r="C32">
+        <v>8134</v>
+      </c>
+      <c r="D32">
+        <v>8402</v>
+      </c>
+      <c r="E32">
+        <v>8633</v>
+      </c>
+      <c r="F32">
+        <v>8791</v>
+      </c>
+      <c r="G32">
+        <v>8707</v>
+      </c>
+      <c r="H32">
+        <v>8897</v>
+      </c>
+      <c r="I32">
+        <v>8697</v>
+      </c>
+      <c r="J32">
+        <v>8455</v>
+      </c>
+      <c r="K32">
+        <v>8502</v>
+      </c>
+      <c r="L32">
+        <v>8059</v>
+      </c>
+      <c r="M32">
+        <v>7724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>10547</v>
+      </c>
+      <c r="C33">
+        <v>10444</v>
+      </c>
+      <c r="D33">
+        <v>10990</v>
+      </c>
+      <c r="E33">
+        <v>11026</v>
+      </c>
+      <c r="F33">
+        <v>11278</v>
+      </c>
+      <c r="G33">
+        <v>11220</v>
+      </c>
+      <c r="H33">
+        <v>11124</v>
+      </c>
+      <c r="I33">
+        <v>11124</v>
+      </c>
+      <c r="J33">
+        <v>11055</v>
+      </c>
+      <c r="K33">
+        <v>10840</v>
+      </c>
+      <c r="L33">
+        <v>10690</v>
+      </c>
+      <c r="M33">
+        <v>10555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>22508</v>
+      </c>
+      <c r="C34">
+        <v>25019</v>
+      </c>
+      <c r="D34">
+        <v>23236</v>
+      </c>
+      <c r="E34">
+        <v>29182</v>
+      </c>
+      <c r="F34">
+        <v>31755</v>
+      </c>
+      <c r="G34">
+        <v>26566</v>
+      </c>
+      <c r="H34">
+        <v>32163</v>
+      </c>
+      <c r="I34">
+        <v>29261</v>
+      </c>
+      <c r="J34">
+        <v>26295</v>
+      </c>
+      <c r="K34">
+        <v>27247</v>
+      </c>
+      <c r="L34">
+        <v>26077</v>
+      </c>
+      <c r="M34">
+        <v>24199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>22762</v>
+      </c>
+      <c r="C35">
+        <v>26572</v>
+      </c>
+      <c r="D35">
+        <v>28664</v>
+      </c>
+      <c r="E35">
+        <v>25823</v>
+      </c>
+      <c r="F35">
+        <v>31336</v>
+      </c>
+      <c r="G35">
+        <v>26195</v>
+      </c>
+      <c r="H35">
+        <v>20533</v>
+      </c>
+      <c r="I35">
+        <v>19026</v>
+      </c>
+      <c r="J35">
+        <v>13203</v>
+      </c>
+      <c r="K35">
+        <v>11946</v>
+      </c>
+      <c r="L35">
+        <v>12891</v>
+      </c>
+      <c r="M35">
+        <v>15184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>24177</v>
+      </c>
+      <c r="C36">
+        <v>25380</v>
+      </c>
+      <c r="D36">
+        <v>24725</v>
+      </c>
+      <c r="E36">
+        <v>28775</v>
+      </c>
+      <c r="F36">
+        <v>36426</v>
+      </c>
+      <c r="G36">
+        <v>25171</v>
+      </c>
+      <c r="H36">
+        <v>22164</v>
+      </c>
+      <c r="I36">
+        <v>17560</v>
+      </c>
+      <c r="J36">
+        <v>12661</v>
+      </c>
+      <c r="K36">
+        <v>12088</v>
+      </c>
+      <c r="L36">
+        <v>12694</v>
+      </c>
+      <c r="M36">
+        <v>15376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>23729</v>
+      </c>
+      <c r="C37">
+        <v>23394</v>
+      </c>
+      <c r="D37">
+        <v>28644</v>
+      </c>
+      <c r="E37">
+        <v>31848</v>
+      </c>
+      <c r="F37">
+        <v>27768</v>
+      </c>
+      <c r="G37">
+        <v>26002</v>
+      </c>
+      <c r="H37">
+        <v>24340</v>
+      </c>
+      <c r="I37">
+        <v>17170</v>
+      </c>
+      <c r="J37">
+        <v>13606</v>
+      </c>
+      <c r="K37">
+        <v>11676</v>
+      </c>
+      <c r="L37">
+        <v>12574</v>
+      </c>
+      <c r="M37">
+        <v>15163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>21331</v>
+      </c>
+      <c r="C38">
+        <v>22229</v>
+      </c>
+      <c r="D38">
+        <v>25847</v>
+      </c>
+      <c r="E38">
+        <v>24953</v>
+      </c>
+      <c r="F38">
+        <v>28937</v>
+      </c>
+      <c r="G38">
+        <v>27642</v>
+      </c>
+      <c r="H38">
+        <v>25111</v>
+      </c>
+      <c r="I38">
+        <v>26214</v>
+      </c>
+      <c r="J38">
+        <v>30000</v>
+      </c>
+      <c r="K38">
+        <v>25370</v>
+      </c>
+      <c r="L38">
+        <v>22625</v>
+      </c>
+      <c r="M38">
+        <v>22927</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>7612</v>
+      </c>
+      <c r="C39">
+        <v>7659</v>
+      </c>
+      <c r="D39">
+        <v>7857</v>
+      </c>
+      <c r="E39">
+        <v>7999</v>
+      </c>
+      <c r="F39">
+        <v>8495</v>
+      </c>
+      <c r="G39">
+        <v>8040</v>
+      </c>
+      <c r="H39">
+        <v>8203</v>
+      </c>
+      <c r="I39">
+        <v>8294</v>
+      </c>
+      <c r="J39">
+        <v>8032</v>
+      </c>
+      <c r="K39">
+        <v>7880</v>
+      </c>
+      <c r="L39">
+        <v>7710</v>
+      </c>
+      <c r="M39">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>